--- a/Data/Menu.xlsx
+++ b/Data/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dw/Documents/GitHub/Ruhk/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F8E313-A918-7B4D-A211-2A9D2FBB8B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13303C82-771B-1F48-A59A-1D3080C5F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{7B7E24C3-AAC9-654B-BACB-9DD41857355E}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Flautas</t>
   </si>
   <si>
-    <t>Huevos Ranchero 12.99</t>
-  </si>
-  <si>
     <t>Menudo</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Huevos Ranchero</t>
   </si>
 </sst>
 </file>
@@ -526,18 +526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67E499C-49A7-3B4A-8136-F5703B695795}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,12 +598,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>12.99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>13.99</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>13.99</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>13.99</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>19.989999999999998</v>
@@ -635,7 +638,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>19.989999999999998</v>
@@ -643,7 +646,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>19.989999999999998</v>
@@ -651,7 +654,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>19.989999999999998</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>16.989999999999998</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>18.989999999999998</v>
@@ -675,7 +678,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>19.989999999999998</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>16.989999999999998</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>13.99</v>
@@ -707,7 +710,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>10.99</v>
@@ -715,7 +718,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>24.99</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>19.989999999999998</v>
@@ -731,7 +734,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>18.989999999999998</v>
@@ -739,7 +742,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>10.99</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>12.99</v>
@@ -755,7 +758,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>10.99</v>
@@ -763,7 +766,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>16.989999999999998</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>6.99</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -787,7 +790,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>12.99</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -803,7 +806,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>19.989999999999998</v>
@@ -811,7 +814,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>19.989999999999998</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>19.989999999999998</v>
@@ -827,7 +830,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>19.989999999999998</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>5.99</v>
@@ -843,7 +846,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>9.99</v>
@@ -851,7 +854,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>12.99</v>
